--- a/natmiOut/OldD7/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H2">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N2">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O2">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P2">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q2">
-        <v>7.265609500327345</v>
+        <v>26.25494802883333</v>
       </c>
       <c r="R2">
-        <v>7.265609500327345</v>
+        <v>236.2945322595</v>
       </c>
       <c r="S2">
-        <v>0.03066120939954292</v>
+        <v>0.06075744357076009</v>
       </c>
       <c r="T2">
-        <v>0.03066120939954292</v>
+        <v>0.06075744357076009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H3">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N3">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O3">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P3">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q3">
-        <v>13.07242375001136</v>
+        <v>22.392435128921</v>
       </c>
       <c r="R3">
-        <v>13.07242375001136</v>
+        <v>201.531916160289</v>
       </c>
       <c r="S3">
-        <v>0.05516623511635162</v>
+        <v>0.05181907472310389</v>
       </c>
       <c r="T3">
-        <v>0.05516623511635162</v>
+        <v>0.05181907472310389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H4">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N4">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O4">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P4">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q4">
-        <v>7.302111796678359</v>
+        <v>25.07926649657</v>
       </c>
       <c r="R4">
-        <v>7.302111796678359</v>
+        <v>225.71339846913</v>
       </c>
       <c r="S4">
-        <v>0.03081525078477456</v>
+        <v>0.05803676005330548</v>
       </c>
       <c r="T4">
-        <v>0.03081525078477456</v>
+        <v>0.05803676005330548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H5">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N5">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O5">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P5">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q5">
-        <v>3.406110112443063</v>
+        <v>5.619030951248</v>
       </c>
       <c r="R5">
-        <v>3.406110112443063</v>
+        <v>50.57127856123201</v>
       </c>
       <c r="S5">
-        <v>0.01437394280422203</v>
+        <v>0.01300318536406469</v>
       </c>
       <c r="T5">
-        <v>0.01437394280422203</v>
+        <v>0.0130031853640647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H6">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N6">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O6">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P6">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q6">
-        <v>33.33998087894041</v>
+        <v>76.17894782033333</v>
       </c>
       <c r="R6">
-        <v>33.33998087894041</v>
+        <v>685.610530383</v>
       </c>
       <c r="S6">
-        <v>0.1406962671280218</v>
+        <v>0.1762882226386738</v>
       </c>
       <c r="T6">
-        <v>0.1406962671280218</v>
+        <v>0.1762882226386738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H7">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N7">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O7">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P7">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q7">
-        <v>59.98593206077879</v>
+        <v>64.97183484739401</v>
       </c>
       <c r="R7">
-        <v>59.98593206077879</v>
+        <v>584.7465136265459</v>
       </c>
       <c r="S7">
-        <v>0.2531434181618801</v>
+        <v>0.1503534718520141</v>
       </c>
       <c r="T7">
-        <v>0.2531434181618801</v>
+        <v>0.1503534718520141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H8">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N8">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O8">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P8">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q8">
-        <v>33.50748036571098</v>
+        <v>72.76769817698001</v>
       </c>
       <c r="R8">
-        <v>33.50748036571098</v>
+        <v>654.90928359282</v>
       </c>
       <c r="S8">
-        <v>0.1414031227384089</v>
+        <v>0.1683941370177766</v>
       </c>
       <c r="T8">
-        <v>0.1414031227384089</v>
+        <v>0.1683941370177766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H9">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N9">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O9">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P9">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q9">
-        <v>15.62974806384804</v>
+        <v>16.303664557472</v>
       </c>
       <c r="R9">
-        <v>15.62974806384804</v>
+        <v>146.732981017248</v>
       </c>
       <c r="S9">
-        <v>0.06595826244531232</v>
+        <v>0.03772884936810227</v>
       </c>
       <c r="T9">
-        <v>0.06595826244531232</v>
+        <v>0.03772884936810227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H10">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N10">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O10">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P10">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q10">
-        <v>11.00216949813572</v>
+        <v>29.55029977622223</v>
       </c>
       <c r="R10">
-        <v>11.00216949813572</v>
+        <v>265.952697986</v>
       </c>
       <c r="S10">
-        <v>0.0464296660612444</v>
+        <v>0.06838332603748243</v>
       </c>
       <c r="T10">
-        <v>0.0464296660612444</v>
+        <v>0.06838332603748241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H11">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N11">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O11">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P11">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q11">
-        <v>19.79531405350095</v>
+        <v>25.20298916808133</v>
       </c>
       <c r="R11">
-        <v>19.79531405350095</v>
+        <v>226.826902512732</v>
       </c>
       <c r="S11">
-        <v>0.08353714430933318</v>
+        <v>0.05832307077936437</v>
       </c>
       <c r="T11">
-        <v>0.08353714430933318</v>
+        <v>0.05832307077936436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H12">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N12">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O12">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P12">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q12">
-        <v>11.05744420723025</v>
+        <v>28.22705428049333</v>
       </c>
       <c r="R12">
-        <v>11.05744420723025</v>
+        <v>254.04348852444</v>
       </c>
       <c r="S12">
-        <v>0.04666292789976872</v>
+        <v>0.06532115987174796</v>
       </c>
       <c r="T12">
-        <v>0.04666292789976872</v>
+        <v>0.06532115987174793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H13">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N13">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O13">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P13">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q13">
-        <v>5.15780551992566</v>
+        <v>6.324295476757333</v>
       </c>
       <c r="R13">
-        <v>5.15780551992566</v>
+        <v>56.918659290816</v>
       </c>
       <c r="S13">
-        <v>0.02176617874679805</v>
+        <v>0.01463526132795668</v>
       </c>
       <c r="T13">
-        <v>0.02176617874679805</v>
+        <v>0.01463526132795668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H14">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N14">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O14">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P14">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q14">
-        <v>3.847864731972803</v>
+        <v>11.00378866627778</v>
       </c>
       <c r="R14">
-        <v>3.847864731972803</v>
+        <v>99.03409799650001</v>
       </c>
       <c r="S14">
-        <v>0.01623816780723196</v>
+        <v>0.02546423128401256</v>
       </c>
       <c r="T14">
-        <v>0.01623816780723196</v>
+        <v>0.02546423128401255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H15">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N15">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O15">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P15">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q15">
-        <v>6.92315191269309</v>
+        <v>9.384959498353666</v>
       </c>
       <c r="R15">
-        <v>6.92315191269309</v>
+        <v>84.46463548518301</v>
       </c>
       <c r="S15">
-        <v>0.02921602248102725</v>
+        <v>0.02171804516652969</v>
       </c>
       <c r="T15">
-        <v>0.02921602248102725</v>
+        <v>0.02171804516652968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H16">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N16">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O16">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P16">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q16">
-        <v>3.867196337773906</v>
+        <v>10.51104531345667</v>
       </c>
       <c r="R16">
-        <v>3.867196337773906</v>
+        <v>94.59940782110999</v>
       </c>
       <c r="S16">
-        <v>0.01631974808118838</v>
+        <v>0.02432395759461055</v>
       </c>
       <c r="T16">
-        <v>0.01631974808118838</v>
+        <v>0.02432395759461054</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H17">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N17">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O17">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P17">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q17">
-        <v>1.803874950105024</v>
+        <v>2.355008626522667</v>
       </c>
       <c r="R17">
-        <v>1.803874950105024</v>
+        <v>21.195077638704</v>
       </c>
       <c r="S17">
-        <v>0.007612436034894015</v>
+        <v>0.005449803350494853</v>
       </c>
       <c r="T17">
-        <v>0.007612436034894015</v>
+        <v>0.005449803350494853</v>
       </c>
     </row>
   </sheetData>
